--- a/Documentação/Diagrama de Caso de Uso/UC01 - Manter Produto/UC01 - Manter Produto.xlsx
+++ b/Documentação/Diagrama de Caso de Uso/UC01 - Manter Produto/UC01 - Manter Produto.xlsx
@@ -104,7 +104,7 @@
     <t>P7.1 - Caso algum campo seja preenchido com valores inválidos, o sistema exibe a mensagem "Formato de dados inválido. Preencha os campos corretamente."
 P9.1 - Se o banco de dados não estiver acessível, o sistema exibe a mensagem de erro "Falha na comunicação com o banco de dados";
 P9.2 - Se ocorrer erro ao executar o SQL, o sistema exibe a mensagem de erro "Falha ao gravar os dados no banco de dados"
-P9.3 -  Se já existir algum usuário com algum dos campos únicos já cadastrado, o sistema exibe uma mensagem de erro "Algum campo único já está cadastrado no sistema. Tente novamente."</t>
+P9.3 -  Se já existir algum produto com algum dos campos únicos já cadastrado, o sistema exibe uma mensagem de erro "Algum campo único já está cadastrado no sistema. Tente novamente."</t>
   </si>
   <si>
     <t>UC 01.2</t>
@@ -136,7 +136,9 @@
 P5 - Caso de Uso concluído.</t>
   </si>
   <si>
-    <t>P4.1 - O ator pode escolher diferentes filtros para listar os
+    <t>P1.1 - Caso o estoque esteja baixo, o sistema exibe uma notificação 
+informando que o estoque está na sua quantidade mínima;
+P4.1 - O ator pode escolher diferentes filtros para listar os
  usuários;
 P4.2 - O ator pode clicar em cada usuário para ter uma visão 
 mais específica de cada.</t>
@@ -153,9 +155,6 @@
   </si>
   <si>
     <t>Permite ao Administrador alterar os dados de produtos cadastrados no sistema.</t>
-  </si>
-  <si>
-    <t>Média</t>
   </si>
   <si>
     <t>- O ator deve estar autenticado no sistema como Administrador;
@@ -199,7 +198,7 @@
 P9.1 - Caso algum campo seja preenchido com valores inválidos, o 
 sistema emite a mensagem "Formato de dados inválido. Preencha os 
 campos corretamente."
-P11.3 -  Se já existir algum usuário com algum dos campos únicos já 
+P11.3 -  Se já existir algum produto com algum dos campos únicos já 
 cadastrado, o sistema exibe uma mensagem de erro "Algum campo único 
 já está cadastrado no sistema. Tente novamente."</t>
   </si>
@@ -211,6 +210,9 @@
   </si>
   <si>
     <t>Permite ao Administrador ativar um produto cadastrado no sistema.</t>
+  </si>
+  <si>
+    <t>Média</t>
   </si>
   <si>
     <t>- O ator deve estar autenticado no sistema como Administrador;
@@ -6791,7 +6793,7 @@
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.511811024" footer="0.0" header="0.0" left="0.787401575" right="0.787401575" top="0.511811024"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6884,8 +6886,8 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -6905,7 +6907,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -6915,7 +6917,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -6925,7 +6927,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -6935,7 +6937,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -6943,7 +6945,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -10933,7 +10935,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -10941,7 +10943,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -10949,7 +10951,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -10987,7 +10989,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -15041,7 +15043,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -15079,7 +15081,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
@@ -15106,7 +15108,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" ht="122.25" customHeight="1">
+    <row r="10" ht="113.25" customHeight="1">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
